--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward4714_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward4714_resistance.xlsx
@@ -1109,31 +1109,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="D2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="G2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714037</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646415</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.693395120032067E-11</v>
+        <v>-8.693015011252501E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464772</v>
+        <v>0.9526279474464771</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172764</v>
+        <v>0.9526279821172765</v>
       </c>
       <c r="Q3">
-        <v>8.709505441346354E-08</v>
+        <v>8.709501765547958E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777248</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860257</v>
       </c>
       <c r="Q4">
-        <v>5.191990874370883E-07</v>
+        <v>5.191989633657296E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994807921</v>
+        <v>179.9999994807922</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1319,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027253</v>
+        <v>0.9526279361027249</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610253</v>
+        <v>0.9526279934610262</v>
       </c>
       <c r="Q5">
-        <v>4.282297024653554E-07</v>
+        <v>4.282296800047893E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.9526279315652241</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985249</v>
+        <v>0.9526279979985258</v>
       </c>
       <c r="Q6">
-        <v>5.646835709409051E-07</v>
+        <v>5.646835411731114E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783974</v>
+        <v>0.9526279277839733</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797747</v>
+        <v>0.9526280017797757</v>
       </c>
       <c r="Q7">
-        <v>6.78395101623223E-07</v>
+        <v>6.783950933791329E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.9526279270277234</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360245</v>
+        <v>0.9526280025360256</v>
       </c>
       <c r="Q8">
-        <v>7.011374052225951E-07</v>
+        <v>7.011374082630588E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.9526279255152229</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485245</v>
+        <v>0.9526280040485255</v>
       </c>
       <c r="Q9">
-        <v>7.466220324092873E-07</v>
+        <v>7.466220203098224E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1614,16 +1614,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027234</v>
+        <v>0.9526279240027228</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610246</v>
+        <v>0.9526280055610256</v>
       </c>
       <c r="Q10">
-        <v>7.921066425400759E-07</v>
+        <v>7.921066342957352E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464732</v>
+        <v>0.9526279232464725</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172746</v>
+        <v>0.9526280063172757</v>
       </c>
       <c r="Q11">
-        <v>8.148489508973638E-07</v>
+        <v>8.148489426529921E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991851421</v>
+        <v>179.9999991851422</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777265</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860267</v>
+        <v>0.9526279843860268</v>
       </c>
       <c r="Q12">
-        <v>1.553219954551154E-07</v>
+        <v>1.553219268903713E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999998446692</v>
+        <v>179.9999998446693</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777268</v>
+        <v>0.9526279451777265</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860268</v>
       </c>
       <c r="Q13">
-        <v>1.553219745423646E-07</v>
+        <v>1.553219377842555E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089768</v>
+        <v>0.9526279429089762</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547759</v>
+        <v>0.9526279866547762</v>
       </c>
       <c r="Q14">
-        <v>2.235489528143363E-07</v>
+        <v>2.235489011166294E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964761</v>
+        <v>0.9526279413964759</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672758</v>
+        <v>0.9526279881672763</v>
       </c>
       <c r="Q15">
-        <v>2.690335289553379E-07</v>
+        <v>2.690335029029534E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279459339769</v>
+        <v>0.9526279459339768</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0.9526279836297766</v>
       </c>
       <c r="Q16">
-        <v>1.325796842897501E-07</v>
+        <v>1.325796195802545E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339769</v>
+        <v>0.9526279459339768</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0.9526279836297766</v>
       </c>
       <c r="Q17">
-        <v>1.325796672322171E-07</v>
+        <v>1.325796304741388E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277264</v>
+        <v>0.9526279391277255</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360254</v>
+        <v>0.9526279904360259</v>
       </c>
       <c r="Q18">
-        <v>3.372605478045607E-07</v>
+        <v>3.372604680303942E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027263</v>
+        <v>0.9526279361027251</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610253</v>
+        <v>0.9526279934610257</v>
       </c>
       <c r="Q19">
-        <v>4.282298304500687E-07</v>
+        <v>4.282297166638047E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339764</v>
+        <v>0.9526279338339748</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297753</v>
+        <v>0.9526279957297755</v>
       </c>
       <c r="Q20">
-        <v>4.964567813197532E-07</v>
+        <v>4.964566564130271E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995035344</v>
+        <v>179.9999995035345</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2263,22 +2263,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777248</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860257</v>
       </c>
       <c r="Q21">
-        <v>5.191990874370883E-07</v>
+        <v>5.191989625303313E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994807921</v>
+        <v>179.9999994807922</v>
       </c>
     </row>
   </sheetData>
@@ -2385,13 +2385,13 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.102503199997684</v>
@@ -2639,7 +2639,7 @@
         <v>1.08450739798448</v>
       </c>
       <c r="Q6">
-        <v>29.14059842362746</v>
+        <v>29.14059842362745</v>
       </c>
       <c r="R6">
         <v>-91.10214736483699</v>
@@ -2760,7 +2760,7 @@
         <v>29.14059842603803</v>
       </c>
       <c r="R8">
-        <v>-91.10214734879825</v>
+        <v>-91.10214734879824</v>
       </c>
       <c r="S8">
         <v>150.3279626386016</v>
@@ -2816,7 +2816,7 @@
         <v>1.08450739813885</v>
       </c>
       <c r="Q9">
-        <v>29.14059842684155</v>
+        <v>29.14059842684156</v>
       </c>
       <c r="R9">
         <v>-91.102147343452</v>
@@ -2934,7 +2934,7 @@
         <v>1.084507398196739</v>
       </c>
       <c r="Q11">
-        <v>29.14059842804685</v>
+        <v>29.14059842804684</v>
       </c>
       <c r="R11">
         <v>-91.10214733543263</v>
@@ -3400,7 +3400,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O19">
-        <v>1.073936237813093</v>
+        <v>1.073936237813092</v>
       </c>
       <c r="P19">
         <v>1.084507397868702</v>
@@ -3628,16 +3628,16 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714037</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646415</v>
@@ -3767,7 +3767,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O4">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P4">
         <v>1.084507397956761</v>
@@ -3835,7 +3835,7 @@
         <v>29.14059842112402</v>
       </c>
       <c r="R5">
-        <v>-91.10214737876404</v>
+        <v>-91.10214737876403</v>
       </c>
       <c r="S5">
         <v>150.3279626289879</v>
@@ -3891,7 +3891,7 @@
         <v>1.084507397995353</v>
       </c>
       <c r="Q6">
-        <v>29.1405984235346</v>
+        <v>29.14059842353459</v>
       </c>
       <c r="R6">
         <v>-91.10214736272529</v>
@@ -3950,7 +3950,7 @@
         <v>1.084507398091835</v>
       </c>
       <c r="Q7">
-        <v>29.14059842554342</v>
+        <v>29.14059842554341</v>
       </c>
       <c r="R7">
         <v>-91.10214734935968</v>
@@ -4006,10 +4006,10 @@
         <v>1.073936237650113</v>
       </c>
       <c r="P8">
-        <v>1.084507398111131</v>
+        <v>1.084507398111132</v>
       </c>
       <c r="Q8">
-        <v>29.14059842594518</v>
+        <v>29.14059842594517</v>
       </c>
       <c r="R8">
         <v>-91.10214734668656</v>
@@ -4360,7 +4360,7 @@
         <v>1.073936237887705</v>
       </c>
       <c r="P14">
-        <v>1.084507397705908</v>
+        <v>1.084507397705909</v>
       </c>
       <c r="Q14">
         <v>29.14059841750815</v>
@@ -4481,7 +4481,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q16">
-        <v>29.14059841590111</v>
+        <v>29.14059841590109</v>
       </c>
       <c r="R16">
         <v>-91.10214741351464</v>
@@ -4540,7 +4540,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.1405984159011</v>
+        <v>29.14059841590109</v>
       </c>
       <c r="R17">
         <v>-91.10214741351464</v>
@@ -4602,7 +4602,7 @@
         <v>29.14059841951697</v>
       </c>
       <c r="R18">
-        <v>-91.10214738945653</v>
+        <v>-91.10214738945652</v>
       </c>
       <c r="S18">
         <v>150.3279626254062</v>
@@ -4658,10 +4658,10 @@
         <v>1.084507397879575</v>
       </c>
       <c r="Q19">
-        <v>29.14059842112403</v>
+        <v>29.14059842112402</v>
       </c>
       <c r="R19">
-        <v>-91.10214737876404</v>
+        <v>-91.10214737876403</v>
       </c>
       <c r="S19">
         <v>150.3279626289879</v>
@@ -4770,7 +4770,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O21">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P21">
         <v>1.084507397956761</v>
@@ -4865,19 +4865,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -4892,7 +4892,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -4904,16 +4904,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849896</v>
+        <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720172204747969E-10</v>
+        <v>1.720004425937886E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4957,22 +4957,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.866025388164028</v>
+        <v>0.8660253881640283</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054648</v>
       </c>
       <c r="Q3">
-        <v>8.659296223926042E-08</v>
+        <v>8.659298895785441E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999133984</v>
+        <v>179.9999999133985</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015302</v>
+        <v>0.866025375101531</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -5025,13 +5025,13 @@
         <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328596385323E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5075,16 +5075,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515304</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179625</v>
       </c>
       <c r="Q5">
-        <v>7.415718441938306E-07</v>
+        <v>7.415718471093329E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -5134,16 +5134,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265307</v>
+        <v>0.8660253737265314</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429614</v>
       </c>
       <c r="Q6">
-        <v>1.003563390030877E-06</v>
+        <v>1.003563388849667E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890319</v>
+        <v>0.8660253702890324</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804596</v>
+        <v>0.8660254372804603</v>
       </c>
       <c r="Q7">
-        <v>1.221889674684557E-06</v>
+        <v>1.221889670450689E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015319</v>
+        <v>0.8660253696015323</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679593</v>
+        <v>0.8660254379679601</v>
       </c>
       <c r="Q8">
-        <v>1.265554944833726E-06</v>
+        <v>1.265554915377879E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265321</v>
+        <v>0.8660253682265326</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429591</v>
+        <v>0.8660254393429598</v>
       </c>
       <c r="Q9">
-        <v>1.352885452148768E-06</v>
+        <v>1.352885443674127E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5370,16 +5370,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515324</v>
+        <v>0.8660253668515329</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179589</v>
+        <v>0.8660254407179597</v>
       </c>
       <c r="Q10">
-        <v>1.440215971631803E-06</v>
+        <v>1.440215963157143E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640326</v>
+        <v>0.8660253661640331</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054588</v>
+        <v>0.8660254414054595</v>
       </c>
       <c r="Q11">
-        <v>1.483881228101202E-06</v>
+        <v>1.483881223867277E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161106</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5488,16 +5488,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015286</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679645</v>
       </c>
       <c r="Q12">
-        <v>2.175887383307079E-07</v>
+        <v>2.175887513807542E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679642</v>
+        <v>0.8660254214679645</v>
       </c>
       <c r="Q13">
-        <v>2.175887366606355E-07</v>
+        <v>2.17588759138465E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,22 +5606,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390285</v>
+        <v>0.8660253840390288</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304639</v>
       </c>
       <c r="Q14">
-        <v>3.485844804580637E-07</v>
+        <v>3.485845265656363E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5665,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.866025382664029</v>
+        <v>0.8660253826640294</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.359150280127745E-07</v>
+        <v>4.359150447506186E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890285</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804643</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q16">
-        <v>1.739234838718169E-07</v>
+        <v>1.739235011626084E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q17">
-        <v>1.73923477961005E-07</v>
+        <v>1.739235004388399E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015297</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.866025426967963</v>
       </c>
       <c r="Q18">
-        <v>5.66910735051156E-07</v>
+        <v>5.669108186916747E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330808</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -5901,22 +5901,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515304</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179623</v>
+        <v>0.8660254297179625</v>
       </c>
       <c r="Q19">
-        <v>7.415717421920364E-07</v>
+        <v>7.415718463158205E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584198</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890308</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804617</v>
       </c>
       <c r="Q20">
-        <v>8.725674909668817E-07</v>
+        <v>8.725676126580642E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015302</v>
+        <v>0.866025375101531</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -6028,13 +6028,13 @@
         <v>0.8660254324679615</v>
       </c>
       <c r="Q21">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328513500123E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -6117,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -6144,7 +6144,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -6156,16 +6156,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849896</v>
+        <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720172204747969E-10</v>
+        <v>1.720004425937886E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6209,22 +6209,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.866025388164028</v>
+        <v>0.8660253881640283</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054648</v>
       </c>
       <c r="Q3">
-        <v>8.659296223926042E-08</v>
+        <v>8.659298895785441E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999133984</v>
+        <v>179.9999999133985</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015302</v>
+        <v>0.866025375101531</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -6277,13 +6277,13 @@
         <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328596385323E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6327,16 +6327,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515304</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179625</v>
       </c>
       <c r="Q5">
-        <v>7.415718441938306E-07</v>
+        <v>7.415718471093329E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -6386,16 +6386,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265307</v>
+        <v>0.8660253737265314</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429614</v>
       </c>
       <c r="Q6">
-        <v>1.003563390030877E-06</v>
+        <v>1.003563388849667E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6445,22 +6445,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890319</v>
+        <v>0.8660253702890324</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804596</v>
+        <v>0.8660254372804603</v>
       </c>
       <c r="Q7">
-        <v>1.221889674684557E-06</v>
+        <v>1.221889670450689E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015319</v>
+        <v>0.8660253696015323</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679593</v>
+        <v>0.8660254379679601</v>
       </c>
       <c r="Q8">
-        <v>1.265554944833726E-06</v>
+        <v>1.265554915377879E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -6563,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265321</v>
+        <v>0.8660253682265326</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429591</v>
+        <v>0.8660254393429598</v>
       </c>
       <c r="Q9">
-        <v>1.352885452148768E-06</v>
+        <v>1.352885443674127E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6622,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515324</v>
+        <v>0.8660253668515329</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179589</v>
+        <v>0.8660254407179597</v>
       </c>
       <c r="Q10">
-        <v>1.440215971631803E-06</v>
+        <v>1.440215963157143E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640326</v>
+        <v>0.8660253661640331</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054588</v>
+        <v>0.8660254414054595</v>
       </c>
       <c r="Q11">
-        <v>1.483881228101202E-06</v>
+        <v>1.483881223867277E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161106</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6740,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015286</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679645</v>
       </c>
       <c r="Q12">
-        <v>2.175887383307079E-07</v>
+        <v>2.175887513807542E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6799,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679642</v>
+        <v>0.8660254214679645</v>
       </c>
       <c r="Q13">
-        <v>2.175887366606355E-07</v>
+        <v>2.17588759138465E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,22 +6858,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390285</v>
+        <v>0.8660253840390288</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304639</v>
       </c>
       <c r="Q14">
-        <v>3.485844804580637E-07</v>
+        <v>3.485845265656363E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6917,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.866025382664029</v>
+        <v>0.8660253826640294</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.359150280127745E-07</v>
+        <v>4.359150447506186E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890285</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804643</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q16">
-        <v>1.739234838718169E-07</v>
+        <v>1.739235011626084E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q17">
-        <v>1.73923477961005E-07</v>
+        <v>1.739235004388399E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,22 +7094,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015297</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.866025426967963</v>
       </c>
       <c r="Q18">
-        <v>5.66910735051156E-07</v>
+        <v>5.669108186916747E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330808</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -7153,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515304</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179623</v>
+        <v>0.8660254297179625</v>
       </c>
       <c r="Q19">
-        <v>7.415717421920364E-07</v>
+        <v>7.415718463158205E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584198</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890308</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804617</v>
       </c>
       <c r="Q20">
-        <v>8.725674909668817E-07</v>
+        <v>8.725676126580642E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015302</v>
+        <v>0.866025375101531</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -7280,13 +7280,13 @@
         <v>0.8660254324679615</v>
       </c>
       <c r="Q21">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328513500123E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -7396,7 +7396,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -7461,13 +7461,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -7526,10 +7526,10 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R4">
         <v>-91.2483935866167</v>
@@ -7588,7 +7588,7 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -7638,16 +7638,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.002551065038351</v>
+        <v>1.00255106503835</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.02648253839819</v>
+        <v>29.0264825383982</v>
       </c>
       <c r="R6">
         <v>-91.24839357891874</v>
@@ -7706,10 +7706,10 @@
         <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7818,16 +7818,16 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
         <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
-        <v>29.02648254695741</v>
+        <v>29.02648254695742</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812687</v>
+        <v>-91.24839354812686</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -7883,7 +7883,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909722</v>
+        <v>29.02648254909723</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -7945,7 +7945,7 @@
         <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.24839353657991</v>
+        <v>-91.2483935365799</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -8113,13 +8113,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -8231,16 +8231,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q16">
         <v>29.02648251807003</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
         <v>150.3745452878344</v>
@@ -8290,16 +8290,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q17">
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -8411,10 +8411,10 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
         <v>-91.24839360201264</v>
@@ -8467,10 +8467,10 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
-        <v>0.9840663103480326</v>
+        <v>0.9840663103480325</v>
       </c>
       <c r="Q20">
         <v>29.02648253518848</v>
@@ -8529,10 +8529,10 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R21">
         <v>-91.2483935866167</v>
@@ -8648,7 +8648,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -8713,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -8778,10 +8778,10 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R4">
         <v>-91.2483935866167</v>
@@ -8840,7 +8840,7 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
         <v>-91.24839360201264</v>
@@ -8890,16 +8890,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.002551065038351</v>
+        <v>1.00255106503835</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.02648253839819</v>
+        <v>29.0264825383982</v>
       </c>
       <c r="R6">
         <v>-91.24839357891874</v>
@@ -8958,10 +8958,10 @@
         <v>0.9840663105879737</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9070,16 +9070,16 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
         <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
-        <v>29.02648254695741</v>
+        <v>29.02648254695742</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812687</v>
+        <v>-91.24839354812686</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -9135,7 +9135,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909722</v>
+        <v>29.02648254909723</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -9197,7 +9197,7 @@
         <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.24839353657991</v>
+        <v>-91.2483935365799</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -9365,13 +9365,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.9731342572013759</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -9483,16 +9483,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q16">
         <v>29.02648251807003</v>
       </c>
       <c r="R16">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S16">
         <v>150.3745452878344</v>
@@ -9542,16 +9542,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q17">
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -9663,10 +9663,10 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
         <v>-91.24839360201264</v>
@@ -9719,10 +9719,10 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
-        <v>0.9840663103480326</v>
+        <v>0.9840663103480325</v>
       </c>
       <c r="Q20">
         <v>29.02648253518848</v>
@@ -9781,10 +9781,10 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R21">
         <v>-91.2483935866167</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112945</v>
+        <v>0.6350853273112937</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114504</v>
+        <v>0.6350852941114496</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762055</v>
+        <v>60.00000073762067</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S3">
-        <v>120.0000009916561</v>
+        <v>120.000000991656</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279452</v>
+        <v>0.6350853458279442</v>
       </c>
       <c r="O4">
         <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.635085283890604</v>
+        <v>0.6350852838906015</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789035</v>
+        <v>60.0000008378908</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S4">
-        <v>120.0000023882382</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.635085341929702</v>
+        <v>0.6350853419297015</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852860423606</v>
+        <v>0.6350852860423596</v>
       </c>
       <c r="Q5">
-        <v>60.00000081678123</v>
+        <v>60.00000081678136</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S5">
-        <v>120.0000020942209</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,19 +10157,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.635085347777065</v>
+        <v>0.6350853477770646</v>
       </c>
       <c r="O6">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147243</v>
+        <v>0.6350852828147235</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844554</v>
+        <v>60.00000084844564</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S6">
         <v>120.0000025352468</v>
@@ -10219,19 +10219,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853526498674</v>
+        <v>0.6350853526498672</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250274</v>
+        <v>0.6350852801250266</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483246</v>
+        <v>60.00000087483255</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S7">
         <v>120.0000029027684</v>
@@ -10281,19 +10281,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244278</v>
+        <v>0.6350853536244275</v>
       </c>
       <c r="O8">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P8">
-        <v>0.635085279587088</v>
+        <v>0.635085279587087</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010988</v>
+        <v>60.00000088010994</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S8">
         <v>120.0000029762727</v>
@@ -10343,19 +10343,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735486</v>
+        <v>0.6350853555735484</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112094</v>
+        <v>0.6350852785112086</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066462</v>
+        <v>60.00000089066472</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999554</v>
       </c>
       <c r="S9">
         <v>120.0000031232813</v>
@@ -10405,19 +10405,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226695</v>
+        <v>0.6350853575226693</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353306</v>
+        <v>0.6350852774353298</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121939</v>
+        <v>60.00000090121949</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999552</v>
       </c>
       <c r="S10">
         <v>120.00000327029</v>
@@ -10467,19 +10467,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972299</v>
+        <v>0.6350853584972297</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973911</v>
+        <v>0.6350852768973904</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649679</v>
+        <v>60.00000090649689</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999552</v>
       </c>
       <c r="S11">
         <v>120.0000033437943</v>
@@ -10529,19 +10529,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349757</v>
+        <v>0.635085330234975</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976316</v>
+        <v>0.6350852924976309</v>
       </c>
       <c r="Q12">
-        <v>60.00000075345277</v>
+        <v>60.00000075345289</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S12">
         <v>120.0000012121689</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349757</v>
+        <v>0.635085330234975</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976318</v>
+        <v>0.635085292497631</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345276</v>
+        <v>60.00000075345287</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S13">
-        <v>120.000001212169</v>
+        <v>120.0000012121689</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586578</v>
+        <v>0.635085333158657</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838149</v>
+        <v>0.6350852908838136</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928468</v>
+        <v>60.00000076928492</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S14">
-        <v>120.000001432682</v>
+        <v>120.0000014326819</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,19 +10715,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853351077785</v>
+        <v>0.6350853351077779</v>
       </c>
       <c r="O15">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079359</v>
+        <v>0.635085289807935</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983956</v>
+        <v>60.00000077983969</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S15">
         <v>120.0000015796906</v>
@@ -10777,19 +10777,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604153</v>
+        <v>0.6350853292604146</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852930355714</v>
+        <v>0.6350852930355706</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817535</v>
+        <v>60.00000074817547</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S16">
         <v>120.0000011386646</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604153</v>
+        <v>0.6350853292604146</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355715</v>
+        <v>0.6350852930355707</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817535</v>
+        <v>60.00000074817547</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S17">
-        <v>120.0000011386647</v>
+        <v>120.0000011386646</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314606</v>
+        <v>0.6350853380314597</v>
       </c>
       <c r="O18">
         <v>1.100000023884844</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941186</v>
+        <v>0.6350852881941168</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567145</v>
+        <v>60.00000079567177</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S18">
-        <v>120.0000018002036</v>
+        <v>120.0000018002035</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297029</v>
+        <v>0.635085341929702</v>
       </c>
       <c r="O19">
         <v>1.100000023884844</v>
       </c>
       <c r="P19">
-        <v>0.6350852860423615</v>
+        <v>0.6350852860423593</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678089</v>
+        <v>60.00000081678127</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S19">
-        <v>120.0000020942209</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533846</v>
+        <v>0.6350853448533835</v>
       </c>
       <c r="O20">
         <v>1.100000023884844</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285435</v>
+        <v>0.6350852844285408</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261299</v>
+        <v>60.00000083261341</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S20">
-        <v>120.0000023147339</v>
+        <v>120.0000023147338</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279452</v>
+        <v>0.6350853458279442</v>
       </c>
       <c r="O21">
         <v>1.100000023884844</v>
       </c>
       <c r="P21">
-        <v>0.635085283890604</v>
+        <v>0.6350852838906015</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789035</v>
+        <v>60.0000008378908</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S21">
-        <v>120.0000023882382</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391564</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522412838</v>
+        <v>333.3333522412837</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11209,7 +11209,7 @@
         <v>0.01094540887219868</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
         <v>0.01094540888868895</v>
@@ -11224,16 +11224,16 @@
         <v>0.1094540870674484</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664725</v>
+        <v>0.6350853099664726</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585755</v>
+        <v>0.6350853098585757</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061768</v>
+        <v>60.00000000061765</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11242,7 +11242,7 @@
         <v>120.0000000049951</v>
       </c>
       <c r="T2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -11286,19 +11286,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372389</v>
+        <v>0.6350853281372391</v>
       </c>
       <c r="O3">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615864</v>
+        <v>0.6350852933615857</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271604</v>
+        <v>60.00000077271607</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S3">
         <v>120.0000010386398</v>
@@ -11348,19 +11348,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538896</v>
+        <v>0.6350853466538894</v>
       </c>
       <c r="O4">
         <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.63508528314074</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298584</v>
+        <v>60.00000087298612</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S4">
         <v>120.000002435222</v>
@@ -11410,22 +11410,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556465</v>
+        <v>0.6350853427556469</v>
       </c>
       <c r="O5">
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.6350852852924965</v>
+        <v>0.6350852852924959</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187672</v>
+        <v>60.00000085187673</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S5">
-        <v>120.0000021412046</v>
+        <v>120.0000021412047</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,19 +11472,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030094</v>
+        <v>0.6350853486030101</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648603</v>
+        <v>0.6350852820648599</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354103</v>
+        <v>60.00000088354101</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S6">
         <v>120.0000025822306</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758119</v>
+        <v>0.6350853534758125</v>
       </c>
       <c r="O7">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751633</v>
+        <v>0.6350852793751629</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992796</v>
+        <v>60.00000090992792</v>
       </c>
       <c r="R7">
         <v>-89.99999999999558</v>
       </c>
       <c r="S7">
-        <v>120.0000029497521</v>
+        <v>120.0000029497522</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,22 +11596,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853544503724</v>
+        <v>0.635085354450373</v>
       </c>
       <c r="O8">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372239</v>
+        <v>0.6350852788372234</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520536</v>
+        <v>60.00000091520533</v>
       </c>
       <c r="R8">
         <v>-89.99999999999558</v>
       </c>
       <c r="S8">
-        <v>120.0000030232565</v>
+        <v>120.0000030232566</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994932</v>
+        <v>0.6350853563994938</v>
       </c>
       <c r="O9">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613454</v>
+        <v>0.6350852777613449</v>
       </c>
       <c r="Q9">
-        <v>60.0000009257601</v>
+        <v>60.00000092576008</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S9">
-        <v>120.0000031702651</v>
+        <v>120.0000031702652</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11720,22 +11720,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635085358348614</v>
+        <v>0.6350853583486147</v>
       </c>
       <c r="O10">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854665</v>
+        <v>0.6350852766854661</v>
       </c>
       <c r="Q10">
-        <v>60.00000093631488</v>
+        <v>60.00000093631485</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S10">
-        <v>120.0000033172737</v>
+        <v>120.0000033172738</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231744</v>
+        <v>0.6350853593231752</v>
       </c>
       <c r="O11">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475271</v>
+        <v>0.6350852761475266</v>
       </c>
       <c r="Q11">
-        <v>60.00000094159229</v>
+        <v>60.00000094159225</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S11">
-        <v>120.000003390778</v>
+        <v>120.0000033907782</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,22 +11844,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853310609202</v>
+        <v>0.6350853310609205</v>
       </c>
       <c r="O12">
         <v>1.100000023884845</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477676</v>
+        <v>0.635085291747767</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854826</v>
+        <v>60.00000078854828</v>
       </c>
       <c r="R12">
         <v>-89.99999999999571</v>
       </c>
       <c r="S12">
-        <v>120.0000012591527</v>
+        <v>120.0000012591528</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,22 +11906,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853310609204</v>
+        <v>0.6350853310609205</v>
       </c>
       <c r="O13">
         <v>1.100000023884845</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477678</v>
+        <v>0.6350852917477671</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854823</v>
+        <v>60.00000078854827</v>
       </c>
       <c r="R13">
         <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>120.0000012591527</v>
+        <v>120.0000012591528</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11974,13 +11974,13 @@
         <v>1.100000023884845</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339511</v>
+        <v>0.6350852901339497</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438014</v>
+        <v>60.00000080438027</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
         <v>120.0000014796658</v>
@@ -12030,16 +12030,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335933723</v>
+        <v>0.6350853359337233</v>
       </c>
       <c r="O15">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580719</v>
+        <v>0.6350852890580713</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493506</v>
+        <v>60.00000081493507</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
@@ -12092,22 +12092,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853300863599</v>
+        <v>0.63508533008636</v>
       </c>
       <c r="O16">
         <v>1.100000023884845</v>
       </c>
       <c r="P16">
-        <v>0.6350852922857073</v>
+        <v>0.6350852922857066</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327084</v>
+        <v>60.00000078327087</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S16">
-        <v>120.0000011856484</v>
+        <v>120.0000011856485</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -12160,16 +12160,16 @@
         <v>1.100000023884845</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857074</v>
+        <v>0.6350852922857069</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327083</v>
+        <v>60.00000078327087</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S17">
-        <v>120.0000011856484</v>
+        <v>120.0000011856485</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12222,13 +12222,13 @@
         <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442549</v>
+        <v>0.6350852874442529</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076693</v>
+        <v>60.00000083076711</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S18">
         <v>120.0000018471874</v>
@@ -12284,13 +12284,13 @@
         <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924975</v>
+        <v>0.6350852852924953</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187637</v>
+        <v>60.00000085187659</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S19">
         <v>120.0000021412047</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793289</v>
+        <v>0.6350853456793288</v>
       </c>
       <c r="O20">
         <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786794</v>
+        <v>0.6350852836786769</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770847</v>
+        <v>60.00000086770873</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S20">
-        <v>120.0000023617177</v>
+        <v>120.0000023617176</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,19 +12402,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538896</v>
+        <v>0.6350853466538894</v>
       </c>
       <c r="O21">
         <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.63508528314074</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298584</v>
+        <v>60.00000087298611</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S21">
         <v>120.000002435222</v>
@@ -12672,10 +12672,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q4">
-        <v>29.92212962977439</v>
+        <v>29.9221296297744</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -13292,10 +13292,10 @@
         <v>1.096496877775077</v>
       </c>
       <c r="Q14">
-        <v>29.92212962001141</v>
+        <v>29.92212962001142</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566747267</v>
@@ -13354,7 +13354,7 @@
         <v>1.096496877754745</v>
       </c>
       <c r="Q15">
-        <v>29.92212962151341</v>
+        <v>29.92212962151342</v>
       </c>
       <c r="R15">
         <v>-89.99999999999635</v>
@@ -13540,7 +13540,7 @@
         <v>1.096496877724249</v>
       </c>
       <c r="Q18">
-        <v>29.92212962376642</v>
+        <v>29.92212962376641</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -13667,7 +13667,7 @@
         <v>29.9221296290234</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.5246566816485</v>
@@ -13726,10 +13726,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q21">
-        <v>29.92212962977439</v>
+        <v>29.9221296297744</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14335,7 +14335,7 @@
         <v>0.01094540887219868</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
         <v>0.01094540888868895</v>
@@ -14731,7 +14731,7 @@
         <v>1.09649687754894</v>
       </c>
       <c r="Q8">
-        <v>29.92212963651796</v>
+        <v>29.92212963651797</v>
       </c>
       <c r="R8">
         <v>-89.99999999999635</v>
@@ -15165,7 +15165,7 @@
         <v>1.096496877742087</v>
       </c>
       <c r="Q15">
-        <v>29.92212962224898</v>
+        <v>29.92212962224899</v>
       </c>
       <c r="R15">
         <v>-89.99999999999635</v>
@@ -15351,7 +15351,7 @@
         <v>1.096496877711591</v>
       </c>
       <c r="Q18">
-        <v>29.92212962450199</v>
+        <v>29.92212962450198</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -15478,7 +15478,7 @@
         <v>29.92212962975897</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S20">
         <v>149.524656681965</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -15665,7 +15665,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -15674,7 +15674,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15730,13 +15730,13 @@
         <v>0.5773502855857104</v>
       </c>
       <c r="O3">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962964</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027883</v>
+        <v>0.5773502543027889</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610993</v>
+        <v>60.00000076610989</v>
       </c>
       <c r="R3">
         <v>-89.99999999999586</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888182</v>
+        <v>0.5773503058881821</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802642</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007625</v>
+        <v>60.00000027007612</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>120.000003019149</v>
+        <v>120.0000030191489</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,19 +15851,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613978</v>
+        <v>0.5773503016139784</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P5">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060585</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450432</v>
+        <v>60.00000037450424</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -15913,19 +15913,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.577350308025285</v>
+        <v>0.5773503080252856</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673659</v>
+        <v>0.5773502478673667</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786197</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S6">
         <v>120.0000032289265</v>
@@ -15975,19 +15975,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680408</v>
+        <v>0.5773503133680414</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351224</v>
+        <v>0.5773502463351237</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732689</v>
+        <v>60.00000008732675</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S7">
         <v>120.0000037533702</v>
@@ -16037,19 +16037,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365919</v>
+        <v>0.5773503144365925</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286738</v>
+        <v>0.577350246028675</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121984</v>
+        <v>60.0000000612197</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S8">
         <v>120.0000038582589</v>
@@ -16099,19 +16099,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736942</v>
+        <v>0.5773503165736947</v>
       </c>
       <c r="O9">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157765</v>
+        <v>0.5773502454157778</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900577</v>
+        <v>60.00000000900563</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S9">
         <v>120.0000040680364</v>
@@ -16161,19 +16161,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107966</v>
+        <v>0.5773503187107971</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028792</v>
+        <v>0.5773502448028804</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679155</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S10">
         <v>120.0000042778138</v>
@@ -16223,19 +16223,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793477</v>
+        <v>0.5773503197793484</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964307</v>
+        <v>0.5773502444964319</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068465</v>
+        <v>59.99999993068451</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S11">
         <v>120.0000043827026</v>
@@ -16288,13 +16288,13 @@
         <v>0.5773502887913642</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834421</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q12">
-        <v>60.0000006877888</v>
+        <v>60.00000068778877</v>
       </c>
       <c r="R12">
         <v>-89.99999999999588</v>
@@ -16347,16 +16347,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913642</v>
+        <v>0.5773502887913643</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834421</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q13">
-        <v>60.0000006877888</v>
+        <v>60.00000068778876</v>
       </c>
       <c r="R13">
         <v>-89.99999999999588</v>
@@ -16412,16 +16412,16 @@
         <v>0.5773502919970173</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962963</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640967</v>
       </c>
       <c r="Q14">
-        <v>60.0000006094677</v>
+        <v>60.00000060946765</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S14">
         <v>120.0000016555955</v>
@@ -16471,19 +16471,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341199</v>
+        <v>0.5773502941341201</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511987</v>
+        <v>0.5773502518511993</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725354</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -16536,13 +16536,13 @@
         <v>0.5773502877228128</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962963</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898908</v>
+        <v>0.5773502536898912</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389584</v>
+        <v>60.00000071389582</v>
       </c>
       <c r="R16">
         <v>-89.99999999999588</v>
@@ -16598,19 +16598,19 @@
         <v>0.577350287722813</v>
       </c>
       <c r="O17">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962963</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898908</v>
+        <v>0.5773502536898913</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389584</v>
+        <v>60.00000071389581</v>
       </c>
       <c r="R17">
         <v>-89.99999999999588</v>
       </c>
       <c r="S17">
-        <v>120.0000012360406</v>
+        <v>120.0000012360407</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -16657,22 +16657,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397729</v>
+        <v>0.5773502973397731</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318522</v>
+        <v>0.5773502509318533</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893252</v>
+        <v>60.00000047893242</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S18">
-        <v>120.0000021800392</v>
+        <v>120.0000021800391</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,19 +16719,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060573</v>
+        <v>0.5773502497060589</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450439</v>
+        <v>60.00000037450426</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
         <v>120.000002599594</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196308</v>
+        <v>0.5773503048196309</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867112</v>
+        <v>0.5773502487867128</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618329</v>
+        <v>60.00000029618315</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>120.0000029142603</v>
+        <v>120.0000029142602</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881819</v>
+        <v>0.577350305888182</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802642</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007626</v>
+        <v>60.00000027007612</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>120.000003019149</v>
+        <v>120.0000030191489</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -16980,7 +16980,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -16989,7 +16989,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -17045,13 +17045,13 @@
         <v>0.5773502855857104</v>
       </c>
       <c r="O3">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962964</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027883</v>
+        <v>0.5773502543027889</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610993</v>
+        <v>60.00000076610989</v>
       </c>
       <c r="R3">
         <v>-89.99999999999586</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888182</v>
+        <v>0.5773503058881821</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802642</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007625</v>
+        <v>60.00000027007612</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S4">
-        <v>120.000003019149</v>
+        <v>120.0000030191489</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,19 +17166,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613978</v>
+        <v>0.5773503016139784</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P5">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060585</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450432</v>
+        <v>60.00000037450424</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -17228,19 +17228,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.577350308025285</v>
+        <v>0.5773503080252856</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673659</v>
+        <v>0.5773502478673667</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786197</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S6">
         <v>120.0000032289265</v>
@@ -17290,19 +17290,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680408</v>
+        <v>0.5773503133680414</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351224</v>
+        <v>0.5773502463351237</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732689</v>
+        <v>60.00000008732675</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S7">
         <v>120.0000037533702</v>
@@ -17352,19 +17352,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365919</v>
+        <v>0.5773503144365925</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286738</v>
+        <v>0.577350246028675</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121984</v>
+        <v>60.0000000612197</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S8">
         <v>120.0000038582589</v>
@@ -17414,19 +17414,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736942</v>
+        <v>0.5773503165736947</v>
       </c>
       <c r="O9">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157765</v>
+        <v>0.5773502454157778</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900577</v>
+        <v>60.00000000900563</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S9">
         <v>120.0000040680364</v>
@@ -17476,19 +17476,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107966</v>
+        <v>0.5773503187107971</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028792</v>
+        <v>0.5773502448028804</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679155</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S10">
         <v>120.0000042778138</v>
@@ -17538,19 +17538,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793477</v>
+        <v>0.5773503197793484</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964307</v>
+        <v>0.5773502444964319</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068465</v>
+        <v>59.99999993068451</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S11">
         <v>120.0000043827026</v>
@@ -17603,13 +17603,13 @@
         <v>0.5773502887913642</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834421</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q12">
-        <v>60.0000006877888</v>
+        <v>60.00000068778877</v>
       </c>
       <c r="R12">
         <v>-89.99999999999588</v>
@@ -17662,16 +17662,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913642</v>
+        <v>0.5773502887913643</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834421</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q13">
-        <v>60.0000006877888</v>
+        <v>60.00000068778876</v>
       </c>
       <c r="R13">
         <v>-89.99999999999588</v>
@@ -17727,16 +17727,16 @@
         <v>0.5773502919970173</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962963</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640967</v>
       </c>
       <c r="Q14">
-        <v>60.0000006094677</v>
+        <v>60.00000060946765</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S14">
         <v>120.0000016555955</v>
@@ -17786,19 +17786,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341199</v>
+        <v>0.5773502941341201</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511987</v>
+        <v>0.5773502518511993</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725354</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -17851,13 +17851,13 @@
         <v>0.5773502877228128</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962963</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898908</v>
+        <v>0.5773502536898912</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389584</v>
+        <v>60.00000071389582</v>
       </c>
       <c r="R16">
         <v>-89.99999999999588</v>
@@ -17913,19 +17913,19 @@
         <v>0.577350287722813</v>
       </c>
       <c r="O17">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962963</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898908</v>
+        <v>0.5773502536898913</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389584</v>
+        <v>60.00000071389581</v>
       </c>
       <c r="R17">
         <v>-89.99999999999588</v>
       </c>
       <c r="S17">
-        <v>120.0000012360406</v>
+        <v>120.0000012360407</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -17972,22 +17972,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397729</v>
+        <v>0.5773502973397731</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318522</v>
+        <v>0.5773502509318533</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893252</v>
+        <v>60.00000047893242</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S18">
-        <v>120.0000021800392</v>
+        <v>120.0000021800391</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,19 +18034,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060573</v>
+        <v>0.5773502497060589</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450439</v>
+        <v>60.00000037450426</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S19">
         <v>120.000002599594</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196308</v>
+        <v>0.5773503048196309</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867112</v>
+        <v>0.5773502487867128</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618329</v>
+        <v>60.00000029618315</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S20">
-        <v>120.0000029142603</v>
+        <v>120.0000029142602</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881819</v>
+        <v>0.577350305888182</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802642</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007626</v>
+        <v>60.00000027007612</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S21">
-        <v>120.000003019149</v>
+        <v>120.0000030191489</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -18543,13 +18543,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
         <v>29.91230409615193</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -19411,13 +19411,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9900480149287129</v>
+        <v>0.990048014928713</v>
       </c>
       <c r="O20">
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
         <v>29.9123040934257</v>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -19858,13 +19858,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
         <v>29.91230409615193</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20726,13 +20726,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9900480149287129</v>
+        <v>0.990048014928713</v>
       </c>
       <c r="O20">
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
         <v>29.9123040934257</v>
@@ -20892,19 +20892,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620926</v>
+        <v>57.73503019620924</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114189</v>
       </c>
       <c r="G2">
-        <v>333.3333522545259</v>
+        <v>333.3333522545258</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -20916,13 +20916,13 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>0.6350853098448019</v>
@@ -20934,7 +20934,7 @@
         <v>0.6350853098608015</v>
       </c>
       <c r="Q2">
-        <v>4.228446394548947E-09</v>
+        <v>4.228446655106332E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>-179.9999999948365</v>
       </c>
       <c r="T2">
-        <v>57.7350301918306</v>
+        <v>57.73503019183062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -20987,22 +20987,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852940976681</v>
+        <v>0.6350852940976672</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056293</v>
+        <v>0.635085327205629</v>
       </c>
       <c r="Q3">
-        <v>9.908897321974448E-07</v>
+        <v>9.908897035874954E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578329</v>
+        <v>-179.9999992578328</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,22 +21049,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768194</v>
+        <v>0.635085283876816</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853457222794</v>
+        <v>0.6350853457222784</v>
       </c>
       <c r="Q4">
-        <v>2.387471857301227E-06</v>
+        <v>2.387471806517055E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991575631</v>
+        <v>-179.9999991575628</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -21111,22 +21111,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285743</v>
+        <v>0.6350852860285733</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240366</v>
+        <v>0.6350853418240372</v>
       </c>
       <c r="Q5">
-        <v>2.093454441761202E-06</v>
+        <v>2.093454439578365E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786723</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -21173,22 +21173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009368</v>
+        <v>0.6350852828009358</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853476713992</v>
+        <v>0.6350853476714003</v>
       </c>
       <c r="Q6">
-        <v>2.534480347995371E-06</v>
+        <v>2.534480344153457E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991470081</v>
+        <v>-179.999999147008</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112388</v>
+        <v>0.6350852801112375</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525442018</v>
+        <v>0.6350853525442031</v>
       </c>
       <c r="Q7">
-        <v>2.90200190273767E-06</v>
+        <v>2.902001926832256E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999991206213</v>
+        <v>-179.9999991206212</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,22 +21297,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732991</v>
+        <v>0.6350852795732981</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187623</v>
+        <v>0.6350853535187634</v>
       </c>
       <c r="Q8">
-        <v>2.975506207373844E-06</v>
+        <v>2.975506248714573E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999991153439</v>
+        <v>-179.9999991153438</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -21359,16 +21359,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974198</v>
+        <v>0.6350852784974186</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853554678831</v>
+        <v>0.6350853554678844</v>
       </c>
       <c r="Q9">
-        <v>3.122514843396424E-06</v>
+        <v>3.122514861707903E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,22 +21421,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215405</v>
+        <v>0.6350852774215393</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853574170041</v>
+        <v>0.6350853574170054</v>
       </c>
       <c r="Q10">
-        <v>3.269523472337161E-06</v>
+        <v>3.26952347908282E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9999990942344</v>
+        <v>-179.9999990942343</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,22 +21483,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836007</v>
+        <v>0.6350852768835996</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915645</v>
+        <v>0.6350853583915659</v>
       </c>
       <c r="Q11">
-        <v>3.343027784121441E-06</v>
+        <v>3.3430278024327E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.999999088957</v>
+        <v>-179.9999990889569</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -21545,7 +21545,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852924838488</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -21554,13 +21554,13 @@
         <v>0.6350853301293106</v>
       </c>
       <c r="Q12">
-        <v>1.211402675068545E-06</v>
+        <v>1.211402610266565E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992420008</v>
+        <v>-179.9999992420007</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -21607,7 +21607,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838488</v>
+        <v>0.6350852924838478</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -21616,13 +21616,13 @@
         <v>0.6350853301293106</v>
       </c>
       <c r="Q13">
-        <v>1.211402637258142E-06</v>
+        <v>1.211402614430797E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992420008</v>
+        <v>-179.9999992420007</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -21669,22 +21669,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700314</v>
+        <v>0.6350852908700297</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853330529924</v>
+        <v>0.6350853330529922</v>
       </c>
       <c r="Q14">
-        <v>1.43191563590059E-06</v>
+        <v>1.431915605635859E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999992261688</v>
+        <v>-179.9999992261686</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21731,22 +21731,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941512</v>
+        <v>0.6350852897941505</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021131</v>
+        <v>0.6350853350021135</v>
       </c>
       <c r="Q15">
-        <v>1.578924232098705E-06</v>
+        <v>1.578924231768095E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.999999215614</v>
+        <v>-179.9999992156139</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -21793,22 +21793,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547502</v>
+        <v>0.63508532915475</v>
       </c>
       <c r="Q16">
-        <v>1.137898365848248E-06</v>
+        <v>1.137898301046324E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992472781</v>
+        <v>-179.999999247278</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -21855,22 +21855,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217876</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547502</v>
+        <v>0.63508532915475</v>
       </c>
       <c r="Q17">
-        <v>1.137898328037846E-06</v>
+        <v>1.13789829942773E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992472782</v>
+        <v>-179.9999992472781</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803345</v>
+        <v>0.6350852881803323</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257951</v>
+        <v>0.6350853379257947</v>
       </c>
       <c r="Q18">
-        <v>1.79943725808579E-06</v>
+        <v>1.799437218037198E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999999199782</v>
+        <v>-179.9999991997817</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,22 +21979,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285772</v>
+        <v>0.6350852860285742</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240372</v>
+        <v>0.6350853418240366</v>
       </c>
       <c r="Q19">
-        <v>2.093454565666771E-06</v>
+        <v>2.093454518342097E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786725</v>
+        <v>-179.9999991786722</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,22 +22041,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085284414759</v>
+        <v>0.6350852844147556</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477189</v>
+        <v>0.6350853447477181</v>
       </c>
       <c r="Q20">
-        <v>2.313967540670682E-06</v>
+        <v>2.313967491365101E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991628404</v>
+        <v>-179.9999991628401</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -22103,22 +22103,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768194</v>
+        <v>0.6350852838768161</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853457222794</v>
+        <v>0.6350853457222784</v>
       </c>
       <c r="Q21">
-        <v>2.3874718515184E-06</v>
+        <v>2.387471802212765E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991575631</v>
+        <v>-179.9999991575627</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
         <v>57.73503019620923</v>
@@ -22216,22 +22216,22 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545257</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714037</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646415</v>
@@ -22240,7 +22240,7 @@
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448019</v>
+        <v>0.6350853098448017</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,13 +22249,13 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228442635118158E-09</v>
+        <v>4.22844254778236E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999948365</v>
+        <v>-179.9999999948366</v>
       </c>
       <c r="T2">
         <v>57.7350301918306</v>
@@ -22302,16 +22302,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478038</v>
+        <v>0.6350852933478033</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.635085328031573</v>
+        <v>0.6350853280315729</v>
       </c>
       <c r="Q3">
-        <v>1.03787372739117E-06</v>
+        <v>1.037873628290911E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -22364,22 +22364,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.635085283126955</v>
+        <v>0.6350852831269518</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482232</v>
+        <v>0.6350853465482225</v>
       </c>
       <c r="Q4">
-        <v>2.434455870402535E-06</v>
+        <v>2.434455683624683E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991224676</v>
+        <v>-179.9999991224674</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -22426,22 +22426,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.63508528527871</v>
+        <v>0.6350852852787094</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853426499804</v>
+        <v>0.6350853426499815</v>
       </c>
       <c r="Q5">
-        <v>2.140438449380155E-06</v>
+        <v>2.140438364579347E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991435769</v>
+        <v>-179.9999991435768</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510724</v>
+        <v>0.6350852820510718</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973433</v>
+        <v>0.6350853484973447</v>
       </c>
       <c r="Q6">
-        <v>2.581464355263343E-06</v>
+        <v>2.581464265946492E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991119127</v>
+        <v>-179.9999991119126</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613745</v>
+        <v>0.6350852793613738</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701457</v>
+        <v>0.6350853533701469</v>
       </c>
       <c r="Q7">
-        <v>2.94898591314466E-06</v>
+        <v>2.948985845309687E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999990855258</v>
+        <v>-179.9999990855257</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234348</v>
+        <v>0.6350852788234344</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447061</v>
+        <v>0.6350853543447077</v>
       </c>
       <c r="Q8">
-        <v>3.022490203726509E-06</v>
+        <v>3.022490156197746E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999990802485</v>
+        <v>-179.9999990802484</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22674,22 +22674,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475556</v>
+        <v>0.635085277747555</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853562938271</v>
+        <v>0.6350853562938286</v>
       </c>
       <c r="Q9">
-        <v>3.169498854117304E-06</v>
+        <v>3.169498780499272E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999990696937</v>
+        <v>-179.9999990696936</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22736,22 +22736,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716761</v>
+        <v>0.6350852766716756</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429483</v>
+        <v>0.6350853582429496</v>
       </c>
       <c r="Q10">
-        <v>3.316507477484474E-06</v>
+        <v>3.316507403866304E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999999059139</v>
+        <v>-179.9999990591388</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -22798,22 +22798,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337363</v>
+        <v>0.6350852761337357</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175087</v>
+        <v>0.63508535921751</v>
       </c>
       <c r="Q11">
-        <v>3.390011795156211E-06</v>
+        <v>3.390011721537995E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9999990538616</v>
+        <v>-179.9999990538615</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339841</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552548</v>
+        <v>0.6350853309552545</v>
       </c>
       <c r="Q12">
-        <v>1.258386680855699E-06</v>
+        <v>1.25838655970669E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069052</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,7 +22922,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339841</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -22931,13 +22931,13 @@
         <v>0.6350853309552545</v>
       </c>
       <c r="Q13">
-        <v>1.258386658009795E-06</v>
+        <v>1.258386553126524E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069052</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201672</v>
+        <v>0.635085290120166</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789365</v>
+        <v>0.6350853338789361</v>
       </c>
       <c r="Q14">
-        <v>1.478899650935176E-06</v>
+        <v>1.478899538615856E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999991910733</v>
+        <v>-179.9999991910732</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -23046,22 +23046,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442868</v>
+        <v>0.6350852890442865</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.635085335828057</v>
+        <v>0.6350853358280576</v>
       </c>
       <c r="Q15">
-        <v>1.625908245123437E-06</v>
+        <v>1.625908142529299E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999991805185</v>
+        <v>-179.9999991805184</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -23108,22 +23108,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719241</v>
+        <v>0.6350852922719239</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806942</v>
+        <v>0.635085329980694</v>
       </c>
       <c r="Q16">
-        <v>1.184882371530773E-06</v>
+        <v>1.184882250381809E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992121827</v>
+        <v>-179.9999992121826</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -23170,22 +23170,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719243</v>
+        <v>0.6350852922719238</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806942</v>
+        <v>0.635085329980694</v>
       </c>
       <c r="Q17">
-        <v>1.184882348684868E-06</v>
+        <v>1.184882243801643E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992121827</v>
+        <v>-179.9999992121826</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852874304703</v>
+        <v>0.6350852874304684</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517392</v>
+        <v>0.6350853387517388</v>
       </c>
       <c r="Q18">
-        <v>1.846421270655837E-06</v>
+        <v>1.846421128562561E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991646865</v>
+        <v>-179.9999991646863</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -23294,22 +23294,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787128</v>
+        <v>0.6350852852787102</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499813</v>
+        <v>0.6350853426499806</v>
       </c>
       <c r="Q19">
-        <v>2.140438578349558E-06</v>
+        <v>2.140438396837592E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.999999143577</v>
+        <v>-179.9999991435769</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -23356,22 +23356,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852836648946</v>
+        <v>0.6350852836648915</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736629</v>
+        <v>0.635085345573662</v>
       </c>
       <c r="Q20">
-        <v>2.360951559450186E-06</v>
+        <v>2.360951367922831E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991277449</v>
+        <v>-179.9999991277448</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.635085283126955</v>
+        <v>0.635085283126952</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482232</v>
+        <v>0.6350853465482225</v>
       </c>
       <c r="Q21">
-        <v>2.434455870402535E-06</v>
+        <v>2.434455678875134E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991224676</v>
+        <v>-179.9999991224674</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.096496878100584</v>
@@ -23939,10 +23939,10 @@
         <v>29.52465668684491</v>
       </c>
       <c r="R8">
-        <v>-90.5576808185627</v>
+        <v>-90.55768081856269</v>
       </c>
       <c r="S8">
-        <v>149.9221296357769</v>
+        <v>149.922129635777</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -24116,10 +24116,10 @@
         <v>1.096496877509463</v>
       </c>
       <c r="O11">
-        <v>1.086862152100594</v>
+        <v>1.086862152100595</v>
       </c>
       <c r="P11">
-        <v>1.09035255705797</v>
+        <v>1.090352557057971</v>
       </c>
       <c r="Q11">
         <v>29.52465668972898</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O12">
         <v>1.08686215226662</v>
@@ -24184,7 +24184,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q12">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R12">
         <v>-90.55768085064017</v>
@@ -24237,7 +24237,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O13">
         <v>1.08686215226662</v>
@@ -24246,7 +24246,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q13">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R13">
         <v>-90.55768085064017</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.09649687777377</v>
+        <v>1.096496877773769</v>
       </c>
       <c r="O14">
         <v>1.086862152249445</v>
       </c>
       <c r="P14">
-        <v>1.090352556938987</v>
+        <v>1.090352556938986</v>
       </c>
       <c r="Q14">
         <v>29.5246566747318</v>
@@ -24429,13 +24429,13 @@
         <v>1.086862152272345</v>
       </c>
       <c r="P16">
-        <v>1.090352556920681</v>
+        <v>1.090352556920682</v>
       </c>
       <c r="Q16">
         <v>29.52465667242454</v>
       </c>
       <c r="R16">
-        <v>-90.55768085197674</v>
+        <v>-90.55768085197673</v>
       </c>
       <c r="S16">
         <v>149.922129617002</v>
@@ -24491,13 +24491,13 @@
         <v>1.086862152272345</v>
       </c>
       <c r="P17">
-        <v>1.090352556920681</v>
+        <v>1.090352556920682</v>
       </c>
       <c r="Q17">
         <v>29.52465667242454</v>
       </c>
       <c r="R17">
-        <v>-90.55768085197674</v>
+        <v>-90.55768085197673</v>
       </c>
       <c r="S17">
         <v>149.922129617002</v>
@@ -24686,7 +24686,7 @@
         <v>-90.55768083059175</v>
       </c>
       <c r="S20">
-        <v>149.9221296290179</v>
+        <v>149.922129629018</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>5.123517322003456</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723598</v>
+        <v>0.1094540870723597</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714037</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646415</v>
@@ -25006,7 +25006,7 @@
         <v>29.52465668254692</v>
       </c>
       <c r="R4">
-        <v>-90.55768082819935</v>
+        <v>-90.55768082819934</v>
       </c>
       <c r="S4">
         <v>149.9221296305045</v>
@@ -25127,7 +25127,7 @@
         <v>1.090352557006645</v>
       </c>
       <c r="Q6">
-        <v>29.52465668370054</v>
+        <v>29.52465668370055</v>
       </c>
       <c r="R6">
         <v>-90.55768082552622</v>
@@ -25251,10 +25251,10 @@
         <v>1.090352557034103</v>
       </c>
       <c r="Q8">
-        <v>29.52465668716143</v>
+        <v>29.52465668716144</v>
       </c>
       <c r="R8">
-        <v>-90.55768081750686</v>
+        <v>-90.55768081750685</v>
       </c>
       <c r="S8">
         <v>149.9221296365125</v>
@@ -25378,7 +25378,7 @@
         <v>29.52465668946869</v>
       </c>
       <c r="R10">
-        <v>-90.55768081216061</v>
+        <v>-90.5576808121606</v>
       </c>
       <c r="S10">
         <v>149.9221296395165</v>
@@ -25685,7 +25685,7 @@
         <v>1.090352556947153</v>
       </c>
       <c r="Q15">
-        <v>29.52465667620195</v>
+        <v>29.52465667620196</v>
       </c>
       <c r="R15">
         <v>-90.55768084290152</v>
@@ -25747,7 +25747,7 @@
         <v>1.090352556919695</v>
       </c>
       <c r="Q16">
-        <v>29.52465667274107</v>
+        <v>29.52465667274106</v>
       </c>
       <c r="R16">
         <v>-90.55768085092089</v>
@@ -25871,7 +25871,7 @@
         <v>1.090352556960882</v>
       </c>
       <c r="Q18">
-        <v>29.5246566779324</v>
+        <v>29.52465667793239</v>
       </c>
       <c r="R18">
         <v>-90.55768083889184</v>
@@ -25998,7 +25998,7 @@
         <v>29.5246566819701</v>
       </c>
       <c r="R20">
-        <v>-90.55768082953591</v>
+        <v>-90.5576808295359</v>
       </c>
       <c r="S20">
         <v>149.9221296297535</v>
@@ -26060,7 +26060,7 @@
         <v>29.52465668254692</v>
       </c>
       <c r="R21">
-        <v>-90.55768082819935</v>
+        <v>-90.55768082819934</v>
       </c>
       <c r="S21">
         <v>149.9221296305045</v>
@@ -26152,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
         <v>46.18802315729566</v>
@@ -26179,7 +26179,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534686053639369E-09</v>
+        <v>4.534692665900035E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393532</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594382</v>
+        <v>0.5773502855594385</v>
       </c>
       <c r="Q3">
-        <v>1.029154388094002E-06</v>
+        <v>1.029154450158138E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,22 +26309,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168287</v>
+        <v>0.57735024851683</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619076</v>
+        <v>0.5773503058619079</v>
       </c>
       <c r="Q4">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040320623873E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426238</v>
+        <v>0.5773502497426247</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877045</v>
       </c>
       <c r="Q5">
-        <v>2.602485413228526E-06</v>
+        <v>2.602485425706808E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222532</v>
+        <v>-179.9999996222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -26433,16 +26433,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039324</v>
+        <v>0.5773502479039335</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990105</v>
       </c>
       <c r="Q6">
-        <v>3.231817800459791E-06</v>
+        <v>3.231817820533099E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.57735024637169</v>
+        <v>0.5773502463716911</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.5773503133417657</v>
       </c>
       <c r="Q7">
-        <v>3.756261475267204E-06</v>
+        <v>3.756261462189397E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094305</v>
+        <v>-179.9999999094306</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652413</v>
+        <v>0.5773502460652427</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103168</v>
       </c>
       <c r="Q8">
-        <v>3.86115019073975E-06</v>
+        <v>3.861150182014035E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355375</v>
+        <v>-179.9999999355376</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,22 +26619,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523441</v>
+        <v>0.5773502454523453</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.577350316547419</v>
       </c>
       <c r="Q9">
-        <v>4.070927677278774E-06</v>
+        <v>4.070927664200831E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877516</v>
+        <v>-179.9999999877517</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394471</v>
+        <v>0.5773502448394483</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845212</v>
       </c>
       <c r="Q10">
-        <v>4.280705161081672E-06</v>
+        <v>4.280705141642537E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600198</v>
+        <v>179.9999999600196</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329987</v>
+        <v>0.5773502445329997</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530713</v>
+        <v>0.5773503197530723</v>
       </c>
       <c r="Q11">
-        <v>4.385593882518282E-06</v>
+        <v>4.385593875801345E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339127</v>
+        <v>179.9999999339126</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26805,16 +26805,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200069</v>
+        <v>0.5773502534200072</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650918</v>
       </c>
       <c r="Q12">
-        <v>1.343820607469392E-06</v>
+        <v>1.343820631011184E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26867,16 +26867,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200069</v>
+        <v>0.5773502534200072</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q13">
-        <v>1.343820590095815E-06</v>
+        <v>1.343820658520954E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.577350252500661</v>
+        <v>0.5773502525006614</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707447</v>
       </c>
       <c r="Q14">
-        <v>1.658486730902359E-06</v>
+        <v>1.658486826533615E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999993872901</v>
+        <v>-179.99999938729</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -26991,16 +26991,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877638</v>
+        <v>0.5773502518877646</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078464</v>
+        <v>0.577350294107847</v>
       </c>
       <c r="Q15">
-        <v>1.868264266079072E-06</v>
+        <v>1.868264303770594E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27053,16 +27053,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264558</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965407</v>
       </c>
       <c r="Q16">
-        <v>1.238931887251323E-06</v>
+        <v>1.23893190443203E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -27115,22 +27115,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264559</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q17">
-        <v>1.238931863516636E-06</v>
+        <v>1.238931919219581E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.999999282862</v>
+        <v>-179.9999992828619</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684176</v>
+        <v>0.5773502509684186</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134995</v>
+        <v>0.5773502973135001</v>
       </c>
       <c r="Q18">
-        <v>2.182930344835941E-06</v>
+        <v>2.182930500116252E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -27239,16 +27239,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426231</v>
+        <v>0.5773502497426242</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877036</v>
+        <v>0.577350301587704</v>
       </c>
       <c r="Q19">
-        <v>2.602485241141871E-06</v>
+        <v>2.602485415139653E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -27301,16 +27301,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232773</v>
+        <v>0.5773502488232786</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933566</v>
+        <v>0.577350304793357</v>
       </c>
       <c r="Q20">
-        <v>2.917151399513529E-06</v>
+        <v>2.917151593972447E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,22 +27363,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168287</v>
+        <v>0.57735024851683</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619077</v>
+        <v>0.5773503058619079</v>
       </c>
       <c r="Q21">
-        <v>3.022040124202027E-06</v>
+        <v>3.0220403059387E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -27963,7 +27963,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
         <v>46.18802315729566</v>
@@ -27990,7 +27990,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534686053639369E-09</v>
+        <v>4.534692665900035E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393532</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594382</v>
+        <v>0.5773502855594385</v>
       </c>
       <c r="Q3">
-        <v>1.029154388094002E-06</v>
+        <v>1.029154450158138E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,22 +28120,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168287</v>
+        <v>0.57735024851683</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619076</v>
+        <v>0.5773503058619079</v>
       </c>
       <c r="Q4">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040320623873E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -28182,22 +28182,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426238</v>
+        <v>0.5773502497426247</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877045</v>
       </c>
       <c r="Q5">
-        <v>2.602485413228526E-06</v>
+        <v>2.602485425706808E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222532</v>
+        <v>-179.9999996222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -28244,16 +28244,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039324</v>
+        <v>0.5773502479039335</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990105</v>
       </c>
       <c r="Q6">
-        <v>3.231817800459791E-06</v>
+        <v>3.231817820533099E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.57735024637169</v>
+        <v>0.5773502463716911</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.5773503133417657</v>
       </c>
       <c r="Q7">
-        <v>3.756261475267204E-06</v>
+        <v>3.756261462189397E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094305</v>
+        <v>-179.9999999094306</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652413</v>
+        <v>0.5773502460652427</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103168</v>
       </c>
       <c r="Q8">
-        <v>3.86115019073975E-06</v>
+        <v>3.861150182014035E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355375</v>
+        <v>-179.9999999355376</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,22 +28430,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523441</v>
+        <v>0.5773502454523453</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.577350316547419</v>
       </c>
       <c r="Q9">
-        <v>4.070927677278774E-06</v>
+        <v>4.070927664200831E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877516</v>
+        <v>-179.9999999877517</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394471</v>
+        <v>0.5773502448394483</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845212</v>
       </c>
       <c r="Q10">
-        <v>4.280705161081672E-06</v>
+        <v>4.280705141642537E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600198</v>
+        <v>179.9999999600196</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329987</v>
+        <v>0.5773502445329997</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530713</v>
+        <v>0.5773503197530723</v>
       </c>
       <c r="Q11">
-        <v>4.385593882518282E-06</v>
+        <v>4.385593875801345E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339127</v>
+        <v>179.9999999339126</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28616,16 +28616,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200069</v>
+        <v>0.5773502534200072</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650918</v>
       </c>
       <c r="Q12">
-        <v>1.343820607469392E-06</v>
+        <v>1.343820631011184E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -28678,16 +28678,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200069</v>
+        <v>0.5773502534200072</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q13">
-        <v>1.343820590095815E-06</v>
+        <v>1.343820658520954E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -28740,22 +28740,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.577350252500661</v>
+        <v>0.5773502525006614</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707447</v>
       </c>
       <c r="Q14">
-        <v>1.658486730902359E-06</v>
+        <v>1.658486826533615E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999993872901</v>
+        <v>-179.99999938729</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -28802,16 +28802,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877638</v>
+        <v>0.5773502518877646</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078464</v>
+        <v>0.577350294107847</v>
       </c>
       <c r="Q15">
-        <v>1.868264266079072E-06</v>
+        <v>1.868264303770594E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -28864,16 +28864,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264558</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965407</v>
       </c>
       <c r="Q16">
-        <v>1.238931887251323E-06</v>
+        <v>1.23893190443203E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28926,22 +28926,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264559</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q17">
-        <v>1.238931863516636E-06</v>
+        <v>1.238931919219581E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.999999282862</v>
+        <v>-179.9999992828619</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -28988,16 +28988,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684176</v>
+        <v>0.5773502509684186</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134995</v>
+        <v>0.5773502973135001</v>
       </c>
       <c r="Q18">
-        <v>2.182930344835941E-06</v>
+        <v>2.182930500116252E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -29050,16 +29050,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426231</v>
+        <v>0.5773502497426242</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877036</v>
+        <v>0.577350301587704</v>
       </c>
       <c r="Q19">
-        <v>2.602485241141871E-06</v>
+        <v>2.602485415139653E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -29112,16 +29112,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232773</v>
+        <v>0.5773502488232786</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933566</v>
+        <v>0.577350304793357</v>
       </c>
       <c r="Q20">
-        <v>2.917151399513529E-06</v>
+        <v>2.917151593972447E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,22 +29174,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168287</v>
+        <v>0.57735024851683</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619077</v>
+        <v>0.5773503058619079</v>
       </c>
       <c r="Q21">
-        <v>3.022040124202027E-06</v>
+        <v>3.0220403059387E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -29305,7 +29305,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -29630,7 +29630,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -29683,7 +29683,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798866904159</v>
+        <v>0.9963798866904158</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -29754,7 +29754,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -29819,7 +29819,7 @@
         <v>29.46075733198628</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722237</v>
+        <v>-90.63269602722235</v>
       </c>
       <c r="S10">
         <v>149.9123041052339</v>
@@ -29872,16 +29872,16 @@
         <v>0.9963798866493128</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062497</v>
+        <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529788</v>
+        <v>-90.63269602529786</v>
       </c>
       <c r="S11">
         <v>149.9123041061426</v>
@@ -29934,10 +29934,10 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q12">
         <v>29.46075730406723</v>
@@ -29946,7 +29946,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S12">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -29993,13 +29993,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9963798868877105</v>
+        <v>0.9963798868877107</v>
       </c>
       <c r="O13">
         <v>0.9864427565299283</v>
       </c>
       <c r="P13">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -30055,7 +30055,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
@@ -30368,7 +30368,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -30439,7 +30439,7 @@
         <v>29.46075731902386</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224075</v>
+        <v>-90.63269605224076</v>
       </c>
       <c r="S20">
         <v>149.9123040934202</v>
@@ -30620,7 +30620,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -30874,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -30945,7 +30945,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -30998,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798866904159</v>
+        <v>0.9963798866904158</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -31069,7 +31069,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -31134,7 +31134,7 @@
         <v>29.46075733198628</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722237</v>
+        <v>-90.63269602722235</v>
       </c>
       <c r="S10">
         <v>149.9123041052339</v>
@@ -31187,16 +31187,16 @@
         <v>0.9963798866493128</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062497</v>
+        <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529788</v>
+        <v>-90.63269602529786</v>
       </c>
       <c r="S11">
         <v>149.9123041061426</v>
@@ -31249,10 +31249,10 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q12">
         <v>29.46075730406723</v>
@@ -31261,7 +31261,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S12">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -31308,13 +31308,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9963798868877105</v>
+        <v>0.9963798868877107</v>
       </c>
       <c r="O13">
         <v>0.9864427565299283</v>
       </c>
       <c r="P13">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -31370,7 +31370,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
@@ -31683,7 +31683,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -31754,7 +31754,7 @@
         <v>29.46075731902386</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224075</v>
+        <v>-90.63269605224076</v>
       </c>
       <c r="S20">
         <v>149.9123040934202</v>
@@ -34409,25 +34409,25 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.694474697036798E-11</v>
+        <v>-8.694068268304455E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,22 +34477,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343812</v>
+        <v>0.9526279482343815</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293721</v>
+        <v>0.9526279813293728</v>
       </c>
       <c r="Q3">
-        <v>8.313211763937887E-08</v>
+        <v>8.313211850618832E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999168589</v>
+        <v>179.999999916859</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -34536,22 +34536,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656295</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.952627995698121</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q4">
-        <v>5.152361397134443E-07</v>
+        <v>5.152361064745965E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994847549</v>
+        <v>179.999999484755</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -34595,22 +34595,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906294</v>
+        <v>0.9526279368906292</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627992673121</v>
+        <v>0.9526279926731223</v>
       </c>
       <c r="Q5">
-        <v>4.242667625962477E-07</v>
+        <v>4.242667805565138E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34654,22 +34654,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531288</v>
+        <v>0.9526279323531284</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279972106207</v>
+        <v>0.9526279972106219</v>
       </c>
       <c r="Q6">
-        <v>5.607206374823895E-07</v>
+        <v>5.607206461783712E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34713,22 +34713,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718784</v>
+        <v>0.9526279285718777</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918705</v>
+        <v>0.9526280009918717</v>
       </c>
       <c r="Q7">
-        <v>6.744321692522938E-07</v>
+        <v>6.744322028610165E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999993255587</v>
+        <v>179.9999993255588</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156281</v>
+        <v>0.9526279278156276</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481205</v>
+        <v>0.9526280017481217</v>
       </c>
       <c r="Q8">
-        <v>6.971744703295571E-07</v>
+        <v>6.971745174899449E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999993028164</v>
+        <v>179.9999993028165</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -34831,22 +34831,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031278</v>
+        <v>0.9526279263031272</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606201</v>
+        <v>0.9526280032606216</v>
       </c>
       <c r="Q9">
-        <v>7.426590961172729E-07</v>
+        <v>7.426591258706167E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,22 +34890,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906276</v>
+        <v>0.9526279247906271</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731202</v>
+        <v>0.9526280047731216</v>
       </c>
       <c r="Q10">
-        <v>7.88143710059368E-07</v>
+        <v>7.881437398126154E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,22 +34949,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343773</v>
+        <v>0.9526279240343769</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293703</v>
+        <v>0.9526280055293718</v>
       </c>
       <c r="Q11">
-        <v>8.108860183946999E-07</v>
+        <v>8.108860365822618E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991891049</v>
+        <v>179.999999189105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -35008,22 +35008,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656311</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981224</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q12">
-        <v>1.513590267718505E-07</v>
+        <v>1.513590265281501E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -35073,16 +35073,16 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981224</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q13">
-        <v>1.513590271311658E-07</v>
+        <v>1.513590279978466E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -35126,22 +35126,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279436968809</v>
+        <v>0.9526279436968808</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668718</v>
+        <v>0.9526279858668723</v>
       </c>
       <c r="Q14">
-        <v>2.195860097671116E-07</v>
+        <v>2.195859961611878E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.999999780405</v>
+        <v>179.9999997804051</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -35191,16 +35191,16 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279873793716</v>
+        <v>0.9526279873793724</v>
       </c>
       <c r="Q15">
-        <v>2.650705898138828E-07</v>
+        <v>2.650706067335025E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35244,22 +35244,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218811</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418723</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q16">
-        <v>1.286167194836587E-07</v>
+        <v>1.286167192399904E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -35309,16 +35309,16 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418723</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q17">
-        <v>1.286167159877562E-07</v>
+        <v>1.286167207096868E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -35362,22 +35362,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156304</v>
+        <v>0.9526279399156302</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481213</v>
+        <v>0.9526279896481219</v>
       </c>
       <c r="Q18">
-        <v>3.332976061467322E-07</v>
+        <v>3.332975762183908E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996666934</v>
+        <v>179.9999996666935</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -35421,22 +35421,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906304</v>
+        <v>0.95262793689063</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731211</v>
+        <v>0.9526279926731217</v>
       </c>
       <c r="Q19">
-        <v>4.242668789590299E-07</v>
+        <v>4.242668459747915E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995757241</v>
+        <v>179.9999995757242</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -35480,22 +35480,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218803</v>
+        <v>0.9526279346218796</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.952627994941871</v>
+        <v>0.9526279949418716</v>
       </c>
       <c r="Q20">
-        <v>4.924938336180649E-07</v>
+        <v>4.924937963251528E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995074972</v>
+        <v>179.9999995074973</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -35539,22 +35539,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656295</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.952627995698121</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q21">
-        <v>5.152361397134443E-07</v>
+        <v>5.152361062757177E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994847549</v>
+        <v>179.999999484755</v>
       </c>
     </row>
   </sheetData>
